--- a/doc/ASM-COMMANDS.xlsx
+++ b/doc/ASM-COMMANDS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Project\CPU\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5F6DF9C-500A-437F-A927-28844235438F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB8B3D4-7284-47F2-A30E-8280F30CD1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{1D4EB4C6-BFA7-4AE2-B789-8934C1ACA268}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>MOV</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>LDR</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>OFFSET</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>BAL - 10</t>
+  </si>
+  <si>
+    <t>CMP - 9</t>
+  </si>
+  <si>
+    <t>BLT</t>
+  </si>
+  <si>
+    <t>BLT - 11</t>
   </si>
 </sst>
 </file>
@@ -322,121 +343,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73FB2CA-DD5C-410C-AEDE-18C4F93115C6}">
-  <dimension ref="C3:AI25"/>
+  <dimension ref="C3:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C30" sqref="C30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,175 +774,175 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
+      <c r="C3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
         <v>31</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="5">
         <v>30</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="5">
         <v>29</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="5">
         <v>28</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="5">
         <v>27</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="5">
         <v>26</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="5">
         <v>25</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="5">
         <v>24</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="6">
         <v>23</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="6">
         <v>22</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="6">
         <v>21</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="6">
         <v>20</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="7">
         <v>19</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="7">
         <v>18</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="7">
         <v>17</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="7">
         <v>16</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="5">
         <v>15</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="5">
         <v>14</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="5">
         <v>13</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="5">
         <v>12</v>
       </c>
-      <c r="X3" s="17">
+      <c r="X3" s="6">
         <v>11</v>
       </c>
-      <c r="Y3" s="17">
+      <c r="Y3" s="6">
         <v>10</v>
       </c>
-      <c r="Z3" s="17">
+      <c r="Z3" s="6">
         <v>9</v>
       </c>
-      <c r="AA3" s="17">
+      <c r="AA3" s="6">
         <v>8</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="8">
         <v>7</v>
       </c>
-      <c r="AC3" s="19">
+      <c r="AC3" s="8">
         <v>6</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="8">
         <v>5</v>
       </c>
-      <c r="AE3" s="19">
+      <c r="AE3" s="8">
         <v>4</v>
       </c>
-      <c r="AF3" s="19">
+      <c r="AF3" s="8">
         <v>3</v>
       </c>
-      <c r="AG3" s="19">
+      <c r="AG3" s="8">
         <v>2</v>
       </c>
-      <c r="AH3" s="19">
+      <c r="AH3" s="8">
         <v>1</v>
       </c>
-      <c r="AI3" s="20">
+      <c r="AI3" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C4" s="11"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="22" t="s">
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="27">
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -971,175 +977,175 @@
       <c r="AI5" s="2"/>
     </row>
     <row r="6" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="4">
         <v>31</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="5">
         <v>30</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="5">
         <v>29</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="5">
         <v>28</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="5">
         <v>27</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="5">
         <v>26</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="5">
         <v>25</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="5">
         <v>24</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="6">
         <v>23</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="6">
         <v>22</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="6">
         <v>21</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O6" s="6">
         <v>20</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="7">
         <v>19</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="7">
         <v>18</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="7">
         <v>17</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="7">
         <v>16</v>
       </c>
-      <c r="T6" s="16">
+      <c r="T6" s="5">
         <v>15</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="5">
         <v>14</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="5">
         <v>13</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="5">
         <v>12</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="6">
         <v>11</v>
       </c>
-      <c r="Y6" s="17">
+      <c r="Y6" s="6">
         <v>10</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6" s="6">
         <v>9</v>
       </c>
-      <c r="AA6" s="17">
+      <c r="AA6" s="6">
         <v>8</v>
       </c>
-      <c r="AB6" s="19">
+      <c r="AB6" s="8">
         <v>7</v>
       </c>
-      <c r="AC6" s="19">
+      <c r="AC6" s="8">
         <v>6</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="8">
         <v>5</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="8">
         <v>4</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AF6" s="8">
         <v>3</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AG6" s="8">
         <v>2</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AH6" s="8">
         <v>1</v>
       </c>
-      <c r="AI6" s="20">
+      <c r="AI6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C7" s="11"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23">
-        <v>0</v>
-      </c>
-      <c r="M7" s="23">
-        <v>0</v>
-      </c>
-      <c r="N7" s="23">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
-        <v>0</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
+      <c r="P7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="22" t="s">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="28" t="s">
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="26">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="27">
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C8" s="12"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1174,175 +1180,175 @@
       <c r="AI8" s="2"/>
     </row>
     <row r="9" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="4">
         <v>31</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="5">
         <v>30</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="5">
         <v>29</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="5">
         <v>28</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="5">
         <v>27</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="5">
         <v>26</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="5">
         <v>25</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="5">
         <v>24</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="6">
         <v>23</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="6">
         <v>22</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="6">
         <v>21</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O9" s="6">
         <v>20</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="7">
         <v>19</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="7">
         <v>18</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="7">
         <v>17</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="7">
         <v>16</v>
       </c>
-      <c r="T9" s="16">
+      <c r="T9" s="5">
         <v>15</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="5">
         <v>14</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="5">
         <v>13</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="5">
         <v>12</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="6">
         <v>11</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="6">
         <v>10</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="6">
         <v>9</v>
       </c>
-      <c r="AA9" s="17">
+      <c r="AA9" s="6">
         <v>8</v>
       </c>
-      <c r="AB9" s="19">
+      <c r="AB9" s="8">
         <v>7</v>
       </c>
-      <c r="AC9" s="19">
+      <c r="AC9" s="8">
         <v>6</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="8">
         <v>5</v>
       </c>
-      <c r="AE9" s="19">
+      <c r="AE9" s="8">
         <v>4</v>
       </c>
-      <c r="AF9" s="19">
+      <c r="AF9" s="8">
         <v>3</v>
       </c>
-      <c r="AG9" s="19">
+      <c r="AG9" s="8">
         <v>2</v>
       </c>
-      <c r="AH9" s="19">
+      <c r="AH9" s="8">
         <v>1</v>
       </c>
-      <c r="AI9" s="20">
+      <c r="AI9" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C10" s="11"/>
-      <c r="D10" s="21" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23">
-        <v>0</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0</v>
-      </c>
-      <c r="N10" s="23">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
-        <v>0</v>
-      </c>
-      <c r="P10" s="24" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="22" t="s">
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="28" t="s">
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="30">
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C11" s="12"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1377,167 +1383,167 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="12" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="4">
         <v>31</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="5">
         <v>30</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="5">
         <v>29</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="5">
         <v>28</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="5">
         <v>27</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="5">
         <v>26</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="5">
         <v>25</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="5">
         <v>24</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="6">
         <v>23</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="15">
         <v>22</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="15">
         <v>21</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="15">
         <v>20</v>
       </c>
-      <c r="P12" s="32">
+      <c r="P12" s="16">
         <v>19</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="16">
         <v>18</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="16">
         <v>17</v>
       </c>
-      <c r="S12" s="32">
+      <c r="S12" s="16">
         <v>16</v>
       </c>
-      <c r="T12" s="33">
+      <c r="T12" s="17">
         <v>15</v>
       </c>
-      <c r="U12" s="33">
+      <c r="U12" s="17">
         <v>14</v>
       </c>
-      <c r="V12" s="33">
+      <c r="V12" s="17">
         <v>13</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="17">
         <v>12</v>
       </c>
-      <c r="X12" s="31">
+      <c r="X12" s="15">
         <v>11</v>
       </c>
-      <c r="Y12" s="31">
+      <c r="Y12" s="15">
         <v>10</v>
       </c>
-      <c r="Z12" s="31">
+      <c r="Z12" s="15">
         <v>9</v>
       </c>
-      <c r="AA12" s="31">
+      <c r="AA12" s="15">
         <v>8</v>
       </c>
-      <c r="AB12" s="34">
+      <c r="AB12" s="18">
         <v>7</v>
       </c>
-      <c r="AC12" s="34">
+      <c r="AC12" s="18">
         <v>6</v>
       </c>
-      <c r="AD12" s="34">
+      <c r="AD12" s="18">
         <v>5</v>
       </c>
-      <c r="AE12" s="34">
+      <c r="AE12" s="18">
         <v>4</v>
       </c>
-      <c r="AF12" s="34">
+      <c r="AF12" s="18">
         <v>3</v>
       </c>
-      <c r="AG12" s="34">
+      <c r="AG12" s="18">
         <v>2</v>
       </c>
-      <c r="AH12" s="34">
+      <c r="AH12" s="18">
         <v>1</v>
       </c>
-      <c r="AI12" s="35">
+      <c r="AI12" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C13" s="11"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="36">
-        <v>0</v>
-      </c>
-      <c r="N13" s="36">
-        <v>0</v>
-      </c>
-      <c r="O13" s="36">
-        <v>0</v>
-      </c>
-      <c r="P13" s="37" t="s">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0</v>
+      </c>
+      <c r="P13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38" t="s">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="38"/>
-      <c r="V13" s="38"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="39" t="s">
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="40"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="23"/>
     </row>
     <row r="14" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1572,173 +1578,173 @@
       <c r="AI14" s="2"/>
     </row>
     <row r="15" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="4">
         <v>31</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="5">
         <v>30</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="5">
         <v>29</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="5">
         <v>28</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="5">
         <v>27</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="5">
         <v>26</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="5">
         <v>25</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="5">
         <v>24</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="6">
         <v>23</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="15">
         <v>22</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="15">
         <v>21</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="15">
         <v>20</v>
       </c>
-      <c r="P15" s="32">
+      <c r="P15" s="16">
         <v>19</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="16">
         <v>18</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="16">
         <v>17</v>
       </c>
-      <c r="S15" s="32">
+      <c r="S15" s="16">
         <v>16</v>
       </c>
-      <c r="T15" s="33">
+      <c r="T15" s="17">
         <v>15</v>
       </c>
-      <c r="U15" s="33">
+      <c r="U15" s="17">
         <v>14</v>
       </c>
-      <c r="V15" s="33">
+      <c r="V15" s="17">
         <v>13</v>
       </c>
-      <c r="W15" s="33">
+      <c r="W15" s="17">
         <v>12</v>
       </c>
-      <c r="X15" s="31">
+      <c r="X15" s="15">
         <v>11</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="Y15" s="15">
         <v>10</v>
       </c>
-      <c r="Z15" s="31">
+      <c r="Z15" s="15">
         <v>9</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="15">
         <v>8</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="18">
         <v>7</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="18">
         <v>6</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="18">
         <v>5</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="18">
         <v>4</v>
       </c>
-      <c r="AF15" s="34">
+      <c r="AF15" s="18">
         <v>3</v>
       </c>
-      <c r="AG15" s="34">
+      <c r="AG15" s="18">
         <v>2</v>
       </c>
-      <c r="AH15" s="34">
+      <c r="AH15" s="18">
         <v>1</v>
       </c>
-      <c r="AI15" s="35">
+      <c r="AI15" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C16" s="11"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23">
-        <v>0</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0</v>
-      </c>
-      <c r="N16" s="36">
-        <v>0</v>
-      </c>
-      <c r="O16" s="36">
-        <v>0</v>
-      </c>
-      <c r="P16" s="37" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0</v>
+      </c>
+      <c r="N16" s="20">
+        <v>0</v>
+      </c>
+      <c r="O16" s="20">
+        <v>0</v>
+      </c>
+      <c r="P16" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="41">
-        <v>0</v>
-      </c>
-      <c r="U16" s="41">
-        <v>0</v>
-      </c>
-      <c r="V16" s="41">
-        <v>0</v>
-      </c>
-      <c r="W16" s="41">
-        <v>0</v>
-      </c>
-      <c r="X16" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="39" t="s">
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="21">
+        <v>0</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
+        <v>0</v>
+      </c>
+      <c r="X16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="40"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="23"/>
     </row>
     <row r="17" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C17" s="12"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1773,173 +1779,173 @@
       <c r="AI17" s="2"/>
     </row>
     <row r="18" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="4">
         <v>31</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="5">
         <v>30</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="5">
         <v>29</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="5">
         <v>28</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="5">
         <v>27</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="5">
         <v>26</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="5">
         <v>25</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="5">
         <v>24</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="6">
         <v>23</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="15">
         <v>22</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="15">
         <v>21</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="15">
         <v>20</v>
       </c>
-      <c r="P18" s="32">
+      <c r="P18" s="16">
         <v>19</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="16">
         <v>18</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="16">
         <v>17</v>
       </c>
-      <c r="S18" s="32">
+      <c r="S18" s="16">
         <v>16</v>
       </c>
-      <c r="T18" s="33">
+      <c r="T18" s="17">
         <v>15</v>
       </c>
-      <c r="U18" s="33">
+      <c r="U18" s="17">
         <v>14</v>
       </c>
-      <c r="V18" s="33">
+      <c r="V18" s="17">
         <v>13</v>
       </c>
-      <c r="W18" s="33">
+      <c r="W18" s="17">
         <v>12</v>
       </c>
-      <c r="X18" s="31">
+      <c r="X18" s="15">
         <v>11</v>
       </c>
-      <c r="Y18" s="31">
+      <c r="Y18" s="15">
         <v>10</v>
       </c>
-      <c r="Z18" s="31">
+      <c r="Z18" s="15">
         <v>9</v>
       </c>
-      <c r="AA18" s="31">
+      <c r="AA18" s="15">
         <v>8</v>
       </c>
-      <c r="AB18" s="34">
+      <c r="AB18" s="18">
         <v>7</v>
       </c>
-      <c r="AC18" s="34">
+      <c r="AC18" s="18">
         <v>6</v>
       </c>
-      <c r="AD18" s="34">
+      <c r="AD18" s="18">
         <v>5</v>
       </c>
-      <c r="AE18" s="34">
+      <c r="AE18" s="18">
         <v>4</v>
       </c>
-      <c r="AF18" s="34">
+      <c r="AF18" s="18">
         <v>3</v>
       </c>
-      <c r="AG18" s="34">
+      <c r="AG18" s="18">
         <v>2</v>
       </c>
-      <c r="AH18" s="34">
+      <c r="AH18" s="18">
         <v>1</v>
       </c>
-      <c r="AI18" s="35">
+      <c r="AI18" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="21" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23">
-        <v>0</v>
-      </c>
-      <c r="M19" s="36">
-        <v>0</v>
-      </c>
-      <c r="N19" s="36">
-        <v>0</v>
-      </c>
-      <c r="O19" s="36">
-        <v>0</v>
-      </c>
-      <c r="P19" s="37" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <v>0</v>
+      </c>
+      <c r="P19" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="41">
-        <v>0</v>
-      </c>
-      <c r="U19" s="41">
-        <v>0</v>
-      </c>
-      <c r="V19" s="41">
-        <v>0</v>
-      </c>
-      <c r="W19" s="41">
-        <v>0</v>
-      </c>
-      <c r="X19" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="39" t="s">
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="21">
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <v>0</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0</v>
+      </c>
+      <c r="W19" s="21">
+        <v>0</v>
+      </c>
+      <c r="X19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="40"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="23"/>
     </row>
     <row r="20" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C20" s="12"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1974,256 +1980,649 @@
       <c r="AI20" s="2"/>
     </row>
     <row r="21" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="4">
         <v>31</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="5">
         <v>30</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="5">
         <v>29</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="5">
         <v>28</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="5">
         <v>27</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="5">
         <v>26</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="5">
         <v>25</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="5">
         <v>24</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="6">
         <v>23</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="15">
         <v>22</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="15">
         <v>21</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="15">
         <v>20</v>
       </c>
-      <c r="P21" s="32">
+      <c r="P21" s="16">
         <v>19</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="16">
         <v>18</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="16">
         <v>17</v>
       </c>
-      <c r="S21" s="32">
+      <c r="S21" s="16">
         <v>16</v>
       </c>
-      <c r="T21" s="33">
+      <c r="T21" s="17">
         <v>15</v>
       </c>
-      <c r="U21" s="33">
+      <c r="U21" s="17">
         <v>14</v>
       </c>
-      <c r="V21" s="33">
+      <c r="V21" s="17">
         <v>13</v>
       </c>
-      <c r="W21" s="33">
+      <c r="W21" s="17">
         <v>12</v>
       </c>
-      <c r="X21" s="31">
+      <c r="X21" s="15">
         <v>11</v>
       </c>
-      <c r="Y21" s="31">
+      <c r="Y21" s="15">
         <v>10</v>
       </c>
-      <c r="Z21" s="31">
+      <c r="Z21" s="15">
         <v>9</v>
       </c>
-      <c r="AA21" s="31">
+      <c r="AA21" s="15">
         <v>8</v>
       </c>
-      <c r="AB21" s="34">
+      <c r="AB21" s="18">
         <v>7</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AC21" s="18">
         <v>6</v>
       </c>
-      <c r="AD21" s="34">
+      <c r="AD21" s="18">
         <v>5</v>
       </c>
-      <c r="AE21" s="34">
+      <c r="AE21" s="18">
         <v>4</v>
       </c>
-      <c r="AF21" s="34">
+      <c r="AF21" s="18">
         <v>3</v>
       </c>
-      <c r="AG21" s="34">
+      <c r="AG21" s="18">
         <v>2</v>
       </c>
-      <c r="AH21" s="34">
+      <c r="AH21" s="18">
         <v>1</v>
       </c>
-      <c r="AI21" s="35">
+      <c r="AI21" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="28"/>
+      <c r="D22" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23">
-        <v>0</v>
-      </c>
-      <c r="M22" s="36">
-        <v>0</v>
-      </c>
-      <c r="N22" s="36">
-        <v>0</v>
-      </c>
-      <c r="O22" s="36">
-        <v>0</v>
-      </c>
-      <c r="P22" s="37" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <v>0</v>
+      </c>
+      <c r="P22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="41">
-        <v>0</v>
-      </c>
-      <c r="U22" s="41">
-        <v>0</v>
-      </c>
-      <c r="V22" s="41">
-        <v>0</v>
-      </c>
-      <c r="W22" s="41">
-        <v>0</v>
-      </c>
-      <c r="X22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="36">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="39" t="s">
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="21">
+        <v>0</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>0</v>
+      </c>
+      <c r="X22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="40"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="23"/>
     </row>
     <row r="24" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
+      <c r="C24" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>31</v>
+      </c>
+      <c r="E24" s="5">
+        <v>30</v>
+      </c>
+      <c r="F24" s="5">
+        <v>29</v>
+      </c>
+      <c r="G24" s="5">
+        <v>28</v>
+      </c>
+      <c r="H24" s="5">
+        <v>27</v>
+      </c>
+      <c r="I24" s="5">
+        <v>26</v>
+      </c>
+      <c r="J24" s="5">
+        <v>25</v>
+      </c>
+      <c r="K24" s="5">
+        <v>24</v>
+      </c>
+      <c r="L24" s="6">
+        <v>23</v>
+      </c>
+      <c r="M24" s="15">
+        <v>22</v>
+      </c>
+      <c r="N24" s="15">
+        <v>21</v>
+      </c>
+      <c r="O24" s="15">
+        <v>20</v>
+      </c>
+      <c r="P24" s="16">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>18</v>
+      </c>
+      <c r="R24" s="16">
+        <v>17</v>
+      </c>
+      <c r="S24" s="16">
+        <v>16</v>
+      </c>
+      <c r="T24" s="17">
+        <v>15</v>
+      </c>
+      <c r="U24" s="17">
+        <v>14</v>
+      </c>
+      <c r="V24" s="17">
+        <v>13</v>
+      </c>
+      <c r="W24" s="17">
+        <v>12</v>
+      </c>
+      <c r="X24" s="15">
+        <v>11</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>9</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="18">
+        <v>6</v>
+      </c>
+      <c r="AD24" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="19">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="3:35" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C27" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
+        <v>30</v>
+      </c>
+      <c r="F27" s="5">
+        <v>29</v>
+      </c>
+      <c r="G27" s="5">
+        <v>28</v>
+      </c>
+      <c r="H27" s="5">
+        <v>27</v>
+      </c>
+      <c r="I27" s="5">
+        <v>26</v>
+      </c>
+      <c r="J27" s="5">
+        <v>25</v>
+      </c>
+      <c r="K27" s="5">
+        <v>24</v>
+      </c>
+      <c r="L27" s="6">
+        <v>23</v>
+      </c>
+      <c r="M27" s="15">
+        <v>22</v>
+      </c>
+      <c r="N27" s="15">
+        <v>21</v>
+      </c>
+      <c r="O27" s="15">
+        <v>20</v>
+      </c>
+      <c r="P27" s="16">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>18</v>
+      </c>
+      <c r="R27" s="16">
+        <v>17</v>
+      </c>
+      <c r="S27" s="16">
+        <v>16</v>
+      </c>
+      <c r="T27" s="17">
+        <v>15</v>
+      </c>
+      <c r="U27" s="17">
+        <v>14</v>
+      </c>
+      <c r="V27" s="17">
+        <v>13</v>
+      </c>
+      <c r="W27" s="17">
+        <v>12</v>
+      </c>
+      <c r="X27" s="15">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z27" s="15">
+        <v>9</v>
+      </c>
+      <c r="AA27" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>6</v>
+      </c>
+      <c r="AD27" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF27" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C28" s="28"/>
+      <c r="D28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="34"/>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C30" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="4">
+        <v>31</v>
+      </c>
+      <c r="E30" s="5">
+        <v>30</v>
+      </c>
+      <c r="F30" s="5">
+        <v>29</v>
+      </c>
+      <c r="G30" s="5">
+        <v>28</v>
+      </c>
+      <c r="H30" s="5">
+        <v>27</v>
+      </c>
+      <c r="I30" s="5">
+        <v>26</v>
+      </c>
+      <c r="J30" s="5">
+        <v>25</v>
+      </c>
+      <c r="K30" s="5">
+        <v>24</v>
+      </c>
+      <c r="L30" s="6">
+        <v>23</v>
+      </c>
+      <c r="M30" s="15">
+        <v>22</v>
+      </c>
+      <c r="N30" s="15">
+        <v>21</v>
+      </c>
+      <c r="O30" s="15">
+        <v>20</v>
+      </c>
+      <c r="P30" s="16">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>18</v>
+      </c>
+      <c r="R30" s="16">
+        <v>17</v>
+      </c>
+      <c r="S30" s="16">
+        <v>16</v>
+      </c>
+      <c r="T30" s="17">
+        <v>15</v>
+      </c>
+      <c r="U30" s="17">
+        <v>14</v>
+      </c>
+      <c r="V30" s="17">
+        <v>13</v>
+      </c>
+      <c r="W30" s="17">
+        <v>12</v>
+      </c>
+      <c r="X30" s="15">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>10</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>9</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>8</v>
+      </c>
+      <c r="AB30" s="18">
+        <v>7</v>
+      </c>
+      <c r="AC30" s="18">
+        <v>6</v>
+      </c>
+      <c r="AD30" s="18">
+        <v>5</v>
+      </c>
+      <c r="AE30" s="18">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="18">
+        <v>3</v>
+      </c>
+      <c r="AG30" s="18">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="18">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.3">
+      <c r="C31" s="28"/>
+      <c r="D31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="AB19:AI19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="AB22:AI22"/>
+  <mergeCells count="42">
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D25:K25"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="L31:AI31"/>
     <mergeCell ref="P25:S25"/>
     <mergeCell ref="T25:W25"/>
-    <mergeCell ref="AB25:AI25"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L28:AI28"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
     <mergeCell ref="AB13:AI13"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="P16:S16"/>
@@ -2234,20 +2633,16 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="T13:W13"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D4:K4"/>
-    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="AB19:AI19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="AB22:AI22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
